--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationrequest.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationrequest.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-16</t>
+    <t>2022-07-31</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationrequest.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationrequest.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0a</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationrequest.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationrequest.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12440" uniqueCount="1280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12439" uniqueCount="1280">
   <si>
     <t>Property</t>
   </si>
@@ -3625,13 +3625,13 @@
     <t>MedicationRequest.dispenseRequest.numberOfRepeatsAllowed</t>
   </si>
   <si>
-    <t>許可された払い出し回数</t>
-  </si>
-  <si>
-    <t>最初の払い出しに追加で許可された払い出し回数（リフィル、日本では分割処方であるが制度的に一致しない)を示す整数であり、患者が処方された薬を受け取ることができる回数である。使用上の注意：この整数には最初の払い出しが含まれない。オーダーが「30錠に加えて3回繰り返し調剤可」であれば、このオーダーで合計4回、120錠が患者に受け渡される。処方者は0回のリフィルが許可されていると示すことで、初回の払い出し以外を認めないことを明示することができる。</t>
-  </si>
-  <si>
-    <t>もし、許可された払い出し回数を表示するのであれば、この数字に1を足すこと。</t>
+    <t>許可されたリフィル回数</t>
+  </si>
+  <si>
+    <t>リフィル回数を示す整数である。患者が処方された薬を最初の払い出しから追加で受け取ることができる回数である。使用上の注意：この整数には最初の払い出しが含まれない。オーダーが「30錠に加えて3回リフィル可」であれば、このオーダーで合計で最大4回、120錠が患者に受け渡される。この数字を0とすることで，処方者がリフィルを許可しないということを明示することができる。</t>
+  </si>
+  <si>
+    <t>許可された払い出し回数は，最大でこの数字に1を足したものである。</t>
   </si>
   <si>
     <t>Message/Body/NewRx/MedicationPrescribed/Quantity</t>
@@ -4211,9 +4211,7 @@
       <c r="A13" t="s" s="2">
         <v>23</v>
       </c>
-      <c r="B13" t="s" s="2">
-        <v>22</v>
-      </c>
+      <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationrequest.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationrequest.xlsx
@@ -2673,7 +2673,7 @@
     <t>HL7v2-0162表をベースにしたJPFHIRでの投与経路コード表を示すURL</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/ePrescription/CodeSystem/route-codes</t>
+    <t>http://jpfhir.jp/fhir/Common/CodeSystem/route-codes</t>
   </si>
   <si>
     <t>MedicationRequest.dosageInstruction.route.coding.version</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationrequest.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationrequest.xlsx
@@ -1060,7 +1060,7 @@
   </si>
   <si>
     <t>コードは臨時で列記したものや、コードのリストからSNOMED CTのように公式に定義されたものまである（HL7 v3 core principle を参照)。FHIR自体ではコーディング規約を定めてはいないし、意味を暗示するために利用されない(SHALL NOT)。一般的に UserSelected = trueの場合には一つのコードシステムが使われる。
-【JP-CORE】Medication要素の説明を参照のこと。</t>
+【JP-Core仕様】Medication要素の説明を参照のこと。</t>
   </si>
   <si>
     <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationrequest.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationrequest.xlsx
@@ -736,6 +736,36 @@
     <t>CX.4 / (CX.4,CX.9,CX.10)</t>
   </si>
   <si>
+    <t>requestIdentifier</t>
+  </si>
+  <si>
+    <t>処方オーダーに対するID</t>
+  </si>
+  <si>
+    <t>薬剤をオーダーする単位としての処方箋に対するID。MedicationRequestは単一の薬剤でインスタンスが作成されるが、それの集合としての処方箋のID。</t>
+  </si>
+  <si>
+    <t>This is a business identifier, not a resource identifier.</t>
+  </si>
+  <si>
+    <t>The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/Common/IdSystem/resourceInstance-identifier</t>
+  </si>
+  <si>
+    <t>The value that is unique</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+  </si>
+  <si>
     <t>orderInRp</t>
   </si>
   <si>
@@ -761,36 +791,6 @@
   </si>
   <si>
     <t>剤グループ内連番。</t>
-  </si>
-  <si>
-    <t>requestIdentifier</t>
-  </si>
-  <si>
-    <t>処方オーダーに対するID</t>
-  </si>
-  <si>
-    <t>薬剤をオーダーする単位としての処方箋に対するID。MedicationRequestは単一の薬剤でインスタンスが作成されるが、それの集合としての処方箋のID。</t>
-  </si>
-  <si>
-    <t>This is a business identifier, not a resource identifier.</t>
-  </si>
-  <si>
-    <t>The namespace for the identifier value</t>
-  </si>
-  <si>
-    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/Common/IdSystem/resourceInstance-identifier</t>
-  </si>
-  <si>
-    <t>The value that is unique</t>
-  </si>
-  <si>
-    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
-  </si>
-  <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
   </si>
   <si>
     <t>MedicationRequest.status</t>
@@ -833,7 +833,7 @@
     <t>現在のステータスの理由</t>
   </si>
   <si>
-    <t>一般的には「保留(suspended)」や「中止(cancelled)」といった例外的状態を示すために持ちいられる。MedicationRequestオーダーが発生した理由についてはreaseonCodeに記載され、この項目は用いられない。</t>
+    <t>一般的には「保留(suspended)」や「中止(cancelled)」といった例外的状態を示すために持ちいられる。MedicationRequestオーダーが発生した理由についてはreasonCodeに記載され、この項目は用いられない。</t>
   </si>
   <si>
     <t>example</t>
@@ -922,7 +922,7 @@
     <t>routine | urgent | asap | stat</t>
   </si>
   <si>
-    <t>このMedicatinRequestオーダーの優先度。他のオーダーと比較して表現される。</t>
+    <t>このMedicationRequestオーダーの優先度。他のオーダーと比較して表現される。</t>
   </si>
   <si>
     <t>FHIRでは文字列の大きさが1MBを超えてはならない(SHALL NOT)。</t>
@@ -1295,7 +1295,7 @@
   <si>
     <t>参照されるPatientが型として示される。
 一般的には参照の対象として予定される型。もし、Reference.typeとReference.referenceがともに指定されていて、Reference.referenceがFHIRのURLであればどちらも一致させるべきである(SHALL)。
-型はResouce Definitionに対するCanonical URLであってその型も参照の対象となる。Referenceはhttp://hl7.org/fhir/StructureDefinition/に対する相対URLである。たとえば、"Patient"はhttp://hl7.org/fhir/StructureDefinition/Patientへの参照である。絶対URLは論理モデルにおいて、論理モデル内部での参照として飲み使用可能であり、Resouceに対しては指定できない。</t>
+型はResource Definitionに対するCanonical URLであってその型も参照の対象となる。Referenceはhttp://hl7.org/fhir/StructureDefinition/に対する相対URLである。たとえば、"Patient"はhttp://hl7.org/fhir/StructureDefinition/Patientへの参照である。絶対URLは論理モデルにおいて、論理モデル内部での参照として飲み使用可能であり、Resourceに対しては指定できない。</t>
   </si>
   <si>
     <t>このelementは参照の対象の型を指定するためのものである。他のElementで指定されていた型であってもなくても指定することができる。場合によっては、対象の型は参照（たとえば、RESTful URL)についての調査により決定されることもあるし、参照の対象から決定されることもある。もし、参照と型のどちらもが指定されていたら、参照は指定された型を決定されるべきである(SHALL)。</t>
@@ -1316,7 +1316,7 @@
     <t>文字列による参照が不明な場合の論理参照</t>
   </si>
   <si>
-    <t>対象となるresouceへのID。FHIRサーバを経由してこの参照が指定するEntityが指定できないか、実際の位置を示す既知のIDへとResourceを変換できない場合のように、ほかのresourceを直接参照することができない場合に使われる。Reference.identifireがFHIRインスタンスである何かを実際に示している必要はないが、FHIRインスタンスとして表現されると想定される業務概念を示されなくてはらならず(SHALL)、そのインスタンスは参照先のFHIRのResource型である必要がある。</t>
+    <t>対象となるresourceへのID。FHIRサーバを経由してこの参照が指定するEntityが指定できないか、実際の位置を示す既知のIDへとResourceを変換できない場合のように、ほかのresourceを直接参照することができない場合に使われる。Reference.identifierがFHIRインスタンスである何かを実際に示している必要はないが、FHIRインスタンスとして表現されると想定される業務概念を示されなくてはらならず(SHALL)、そのインスタンスは参照先のFHIRのResource型である必要がある。</t>
   </si>
   <si>
     <t>IDが参照として与えられている場合には、参照を処理するシステムはIDをIDが利用される業務コンテキストがわかっているかどうか参照を解決するためにしか利用することができない。このIDはグローバル(たとえば国民ID）であることもあるが、そうでないこともある。そのため、この参照を利用する有効な機構（たとえば、データを連鎖させたり、包含させるなど）、サーバが参照を解決することができるとも期待できない。サーバは到達できなかったり、解決できないあるいは拒否されるような参照でもIDとして受け取ることができる。CapabilityStatement.rest.resource.referencePolicyを参照のこと。
@@ -1388,7 +1388,7 @@
     <t>薬剤をオーダーするときに補助的となる追加情報（たとえば、患者の身長や体重））を含む。</t>
   </si>
   <si>
-    <t>参照先は実存するFHIR Resourceでなければならず(SHALL)、解決可能(アクセスコントロールや、一時的に利用不可であることなどは許容される)でなければならない(SHALL)。解決の方法はURLから取得可能であるか、Resouce型が適応できるかどうか、正規のURLとして絶対的参照を扱うことができるか、ローカルのレジストリ／リポジトリから参照することができるかである。</t>
+    <t>参照先は実存するFHIR Resourceでなければならず(SHALL)、解決可能(アクセスコントロールや、一時的に利用不可であることなどは許容される)でなければならない(SHALL)。解決の方法はURLから取得可能であるか、Resource型が適応できるかどうか、正規のURLとして絶対的参照を扱うことができるか、ローカルのレジストリ／リポジトリから参照することができるかである。</t>
   </si>
   <si>
     <t>Request.supportingInfo</t>
@@ -1620,7 +1620,7 @@
     <t>MedicationRequest.groupIdentifier</t>
   </si>
   <si>
-    <t>このRerquestを一部とする複数のオーダーを構成するID</t>
+    <t>このRequestを一部とする複数のオーダーを構成するID</t>
   </si>
   <si>
     <t>一人の処方者が同時期に前後して作成した全てのリクエストに共通するIDで、処方や薬品請求のIDを示す。</t>
@@ -1738,7 +1738,7 @@
     <t>投与期間の開始日を明示するための拡張</t>
   </si>
   <si>
-    <t>MedcationRequestの投与期間の開始日を明示するための拡張</t>
+    <t>MedicationRequestの投与期間の開始日を明示するための拡張</t>
   </si>
   <si>
     <t>usageDuration</t>
@@ -2667,10 +2667,10 @@
     <t>MedicationRequest.dosageInstruction.route.coding.system</t>
   </si>
   <si>
-    <t>HL7v2-0162表をベースにしたJPFHIRでの投与経路コード表</t>
-  </si>
-  <si>
-    <t>HL7v2-0162表をベースにしたJPFHIRでの投与経路コード表を示すURL</t>
+    <t>HL7v2-0162表をベースにしたJP Coreでの投与経路コード表</t>
+  </si>
+  <si>
+    <t>HL7v2-0162表をベースにしたJP Coreでの投与経路コード表を示すURL</t>
   </si>
   <si>
     <t>http://jpfhir.jp/fhir/Common/CodeSystem/route-codes</t>
@@ -2938,7 +2938,7 @@
     <t>1回投与量</t>
   </si>
   <si>
-    <t>この量は指定された薬剤の量を指定するものであって、各有効成分の量を指定するものではない。各成分の量はMedication resourceで伝えることができる。たとえば、有効成分が375mgである錠剤を1錠投与することを伝えたい場合、Medication resourceを利用して、XYZ成分が375mg含有しているという錠剤であることを文書化することができる。あるいは1回投与量が375mgであることを伝えるのであれば、Medication resourceをつかって単にそれが錠剤であることを示せばよい。もし、ドーパミンの静注を例に挙げて、400mgのドーパミンを500mlの注射溶液に混ぜて使うことを伝えたいのであれば、それをすべてMedication resourceで伝えることができる。もし、投与について即時に伝達することを意図していない（たとえば投与速度が示されていたり、投与時期に範囲があるような場合）のであれば、たとえば1回500mlを4時間以上かけて投与する予定を伝える場合にもMecication resourceで伝えることができる。</t>
+    <t>この量は指定された薬剤の量を指定するものであって、各有効成分の量を指定するものではない。各成分の量はMedication resourceで伝えることができる。たとえば、有効成分が375mgである錠剤を1錠投与することを伝えたい場合、Medication resourceを利用して、XYZ成分が375mg含有しているという錠剤であることを文書化することができる。あるいは1回投与量が375mgであることを伝えるのであれば、Medication resourceをつかって単にそれが錠剤であることを示せばよい。もし、ドーパミンの静注を例に挙げて、400mgのドーパミンを500mlの注射溶液に混ぜて使うことを伝えたいのであれば、それをすべてMedication resourceで伝えることができる。もし、投与について即時に伝達することを意図していない（たとえば投与速度が示されていたり、投与時期に範囲があるような場合）のであれば、たとえば1回500mlを4時間以上かけて投与する予定を伝える場合にもMedication resourceで伝えることができる。</t>
   </si>
   <si>
     <t>The amount of therapeutic or other substance given at one administration event.</t>
@@ -3013,7 +3013,7 @@
   </si>
   <si>
     <t>JP Coreでは日本ではまだ一般的に利用されている一日量での処方のためにrateRatioを用いる。
-薬剤の詳細な投与法、提供方法を伝えるために、投与速度(rate)とdoseQuantityの両方の情報を提供することができる。もし、投与速度が変更されるようであれば、ローカルルールや制限に基づいて、全ての変更は新しいバージョンのMeddicationRequestに更新された投与速度を記録するか、MedicationRequestの新しいインスタンスに新しい投与速度を記録されるようにするべきである。
+薬剤の詳細な投与法、提供方法を伝えるために、投与速度(rate)とdoseQuantityの両方の情報を提供することができる。もし、投与速度が変更されるようであれば、ローカルルールや制限に基づいて、全ての変更は新しいバージョンのMedicationRequestに更新された投与速度を記録するか、MedicationRequestの新しいインスタンスに新しい投与速度を記録されるようにするべきである。
 rateRatioとrateQuantityのいずれかを使って時間内の投与速度（たとえば100ml/hour)を指定することができる。rateQuantityを使うには、ml/hourが投与速度の単位と言うだけではなく、時間が分母として指定されているということを示しているというようなUCUM単位の文法をシステムがパース可能であることが求められる。500mlを2時間でというような投与速度指示では、rateRatioがrateQuantityで250mg/hourとするよりもセマンティクスを正確に伝えることができるかもしれない。</t>
   </si>
   <si>
@@ -3918,7 +3918,7 @@
     <t>前回のオーダー/処方</t>
   </si>
   <si>
-    <t>関連する先行オーダーや処方を表現するMedicationRequest Resouceへのリンク。</t>
+    <t>関連する先行オーダーや処方を表現するMedicationRequest Resourceへのリンク。</t>
   </si>
   <si>
     <t>Request.replaces</t>
@@ -3963,7 +3963,7 @@
     <t>このリソースの現在のバージョンをユーザーから見て関係していそうなキーとなる更新や状態遷移と識別される過去のバージョンのこのリソースあるいは調剤請求あるいはEvent ResourceについてのProvenance resourceへの参照。</t>
   </si>
   <si>
-    <t>このエレメントには全てのバージョンのMedicationRequestについてのProvenanceが取り込まれているわけではない。「関連する」あるいは重要と思われたものだけである。現在のバージョンのResouceに関連したProvenance resouceを含めてはならない(SHALL NOT)。（もし、Provenanceとして「関連した」変化と思われれば、後の更新の一部として取り込まれる必要があるだろう。それまでは、このバージョンを_revincludeを使ってprovenanceとして指定して直接クエリーを発行することができる。全てのProvenanceがこのRequestについての履歴を対象として持つべきである。）</t>
+    <t>このエレメントには全てのバージョンのMedicationRequestについてのProvenanceが取り込まれているわけではない。「関連する」あるいは重要と思われたものだけである。現在のバージョンのResourceに関連したProvenance resourceを含めてはならない(SHALL NOT)。（もし、Provenanceとして「関連した」変化と思われれば、後の更新の一部として取り込まれる必要があるだろう。それまでは、このバージョンを_revincludeを使ってprovenanceとして指定して直接クエリーを発行することができる。全てのProvenanceがこのRequestについての履歴を対象として持つべきである。）</t>
   </si>
   <si>
     <t>Request.relevantHistory</t>
@@ -6737,10 +6737,10 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>80</v>
@@ -7080,7 +7080,7 @@
         <v>78</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>80</v>
@@ -7196,7 +7196,7 @@
         <v>78</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>80</v>
@@ -7425,7 +7425,7 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>88</v>
@@ -7449,7 +7449,7 @@
         <v>240</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>212</v>
+        <v>241</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -7542,7 +7542,7 @@
         <v>78</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>80</v>
@@ -7654,7 +7654,7 @@
         <v>78</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>80</v>
@@ -7760,17 +7760,17 @@
         <v>152</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>80</v>
@@ -7785,13 +7785,13 @@
         <v>154</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -8110,7 +8110,7 @@
         <v>78</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>80</v>
@@ -8226,7 +8226,7 @@
         <v>78</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>80</v>
@@ -8357,10 +8357,10 @@
         <v>102</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M36" t="s" s="2">
         <v>202</v>
@@ -8373,7 +8373,7 @@
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="R36" t="s" s="2">
         <v>80</v>
@@ -8455,7 +8455,7 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F37" t="s" s="2">
         <v>88</v>
@@ -8473,13 +8473,13 @@
         <v>90</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>250</v>
+        <v>212</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -8572,7 +8572,7 @@
         <v>78</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>80</v>
@@ -8684,7 +8684,7 @@
         <v>78</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>80</v>
@@ -27825,10 +27825,10 @@
       </c>
       <c r="P206" s="2"/>
       <c r="Q206" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R206" t="s" s="2">
         <v>957</v>
-      </c>
-      <c r="R206" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="S206" t="s" s="2">
         <v>80</v>
@@ -29081,10 +29081,10 @@
       </c>
       <c r="P217" s="2"/>
       <c r="Q217" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R217" t="s" s="2">
         <v>957</v>
-      </c>
-      <c r="R217" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="S217" t="s" s="2">
         <v>80</v>
@@ -39987,10 +39987,10 @@
       </c>
       <c r="P312" s="2"/>
       <c r="Q312" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R312" t="s" s="2">
         <v>957</v>
-      </c>
-      <c r="R312" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="S312" t="s" s="2">
         <v>80</v>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationrequest.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationrequest.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4180" uniqueCount="692">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3782" uniqueCount="631">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-31</t>
+    <t>2022-09-26</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -504,7 +504,7 @@
   <si>
     <t>このインスタンスが外部から参照されるために使われるIDである。処方箋全体としてのIDとしては使用しない。
 処方箋内で同一の用法をまとめて表記されるRp番号はこのIdentifier elementの別スライスで表現する。それ以外に任意のIDを付与してもよい。
-このIDは業務手順によって定められた処方オーダーに対して、直接的なURL参照が適切でない場合も含めて関連付けるために使われる。この業務手順のIDは実施者によって割り当てられたものであり、リソースが更新されたりサーバからサーバに転送されたとしても固定のものとして存続する。</t>
+このIDは業務手順によって定められた処方オーダに対して、直接的なURL参照が適切でない場合も含めて関連付けるために使われる。この業務手順のIDは実施者によって割り当てられたものであり、リソースが更新されたりサーバからサーバに転送されたとしても固定のものとして存続する。</t>
   </si>
   <si>
     <t>これは業務IDであって、リソースに対するIDではない。</t>
@@ -743,10 +743,10 @@
     <t>requestIdentifier</t>
   </si>
   <si>
-    <t>処方オーダーに対するID</t>
-  </si>
-  <si>
-    <t>薬剤をオーダーする単位としての処方箋に対するID。MedicationRequestは単一の薬剤でインスタンスが作成されるが、それの集合としての処方箋のID。</t>
+    <t>処方オーダに対するID</t>
+  </si>
+  <si>
+    <t>薬剤をオーダする単位としての処方箋に対するID。MedicationRequestは単一の薬剤でインスタンスが作成されるが、それの集合としての処方箋のID。</t>
   </si>
   <si>
     <t>This is a business identifier, not a resource identifier.</t>
@@ -758,7 +758,7 @@
     <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/IdSystem/resourceInstance-identifier</t>
+    <t>http://jpfhir.jp/fhir/core/IdSystem/resourceInstance-identifier</t>
   </si>
   <si>
     <t>The value that is unique</t>
@@ -800,11 +800,10 @@
     <t>MedicationRequest.status</t>
   </si>
   <si>
-    <t>active | on-hold | cancelled | completed | entered-in-error | stopped | draft | unknown</t>
-  </si>
-  <si>
-    <t>JP Coreでは"active"に固定される。
-オーダーの現在の状態を示すコード。一般的には active か completed の状態であるだろう。</t>
+    <t>オーダの現在の状態を示すコード。</t>
+  </si>
+  <si>
+    <t>オーダの現在の状態を示すコード。一般的には active か completed の状態であるだろう。</t>
   </si>
   <si>
     <t>このエレメントはmodifierとされている。StatusとはこのResourceが現在妥当な状態ではないことも示すからである。</t>
@@ -831,13 +830,10 @@
     <t>MedicationRequest.statusReason</t>
   </si>
   <si>
-    <t>現状の理由</t>
-  </si>
-  <si>
     <t>現在のステータスの理由</t>
   </si>
   <si>
-    <t>一般的には「保留(suspended)」や「中止(cancelled)」といった例外的状態を示すために持ちいられる。MedicationRequestオーダーが発生した理由についてはreasonCodeに記載され、この項目は用いられない。</t>
+    <t>一般的には「保留(suspended)」や「中止(cancelled)」といった例外的状態を示すために持ちいられる。MedicationRequestオーダが発生した理由についてはreasonCodeに記載され、この項目は用いられない。</t>
   </si>
   <si>
     <t>example</t>
@@ -858,20 +854,16 @@
     <t>MedicationRequest.intent</t>
   </si>
   <si>
-    <t>proposal | plan | order | original-order | reflex-order | filler-order | instance-order | option</t>
-  </si>
-  <si>
-    <t>JP Coreでは "order" に固定される。
-投薬リクエストの意図 が提案(proposal)、計画(plan)、あるいは他の要求によるものかを示す。</t>
-  </si>
-  <si>
-    <t>処方をオーダーする場合、MedicationRequestのどの段階でオーダーしたのかについて、この項目を指定することが期待される。たとえば、proposalであれば患者、関係者、医師あるいは機器からの提案として作成される。"plan"であれば、医師、患者、関係者そして機器からの提案として生成される。"original-order"は医師にしか作成できない。
-instance-orderはリクエストあるいはオーダーをインスタンス化する段階であり、MedicationAdministrationレコードにも使われる。+    <t>投薬指示の意図</t>
+  </si>
+  <si>
+    <t>投薬指示の意図 が提案(proposal)、計画(plan)、あるいは他の要求によるものかを示す。</t>
+  </si>
+  <si>
+    <t>処方をオーダする場合、MedicationRequestのどの段階でオーダしたのかについて、この項目を指定することが期待される。たとえば、proposalであれば患者、関係者、医師あるいは機器からの提案として作成される。"plan"であれば、医師、患者、関係者そして機器からの提案として生成される。"original-order"は医師にしか作成できない。
+instance-orderはリクエストあるいはオーダをインスタンス化する段階であり、MedicationAdministrationレコードにも使われる。 
 intentはこのresourceが実際に適応される時に変化するため、このエレメントはmodifierとしてラベルされる。</t>
-  </si>
-  <si>
-    <t>order</t>
   </si>
   <si>
     <t>The kind of medication order.</t>
@@ -904,7 +896,7 @@
     <t>薬剤が投与あるいはその他の用途で利用されると想定される場面についての区分である。</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationCategory_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationCategory_VS</t>
   </si>
   <si>
     <t>Message/Body/NewRx/MedicationPrescribed/Directions@@ -920,10 +912,10 @@
     <t>MedicationRequest.priority</t>
   </si>
   <si>
-    <t>routine | urgent | asap | stat</t>
-  </si>
-  <si>
-    <t>このMedicationRequestオーダーの優先度。他のオーダーと比較して表現される。</t>
+    <t>オーダの優先度</t>
+  </si>
+  <si>
+    <t>このMedicationRequestオーダの優先度。他のオーダと比較して表現される。</t>
   </si>
   <si>
     <t>FHIRでは文字列の大きさが1MBを超えてはならない(SHALL NOT)。</t>
@@ -954,10 +946,10 @@
     <t>要求が禁止された行為であればTrue</t>
   </si>
   <si>
-    <t>このオーダーが実施していけないものであればTrueを表示される</t>
-  </si>
-  <si>
-    <t>もし、doNotPerformに指定がなければ、オーダーは実施してもよいものである。(たとえば、「実施せよ」)</t>
+    <t>このオーダが実施していけないものであればTrueを表示される</t>
+  </si>
+  <si>
+    <t>もし、doNotPerformに指定がなければ、オーダは実施してもよいものである。(たとえば、「実施せよ」)</t>
   </si>
   <si>
     <t>SubstanceAdministration.actionNegationInd</t>
@@ -1040,184 +1032,7 @@
     <t>処方する製剤を表すコード。</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationCode_VS</t>
-  </si>
-  <si>
-    <t>MedicationRequest.medication[x].id</t>
-  </si>
-  <si>
-    <t>MedicationRequest.medication[x].extension</t>
-  </si>
-  <si>
-    <t>MedicationRequest.medication[x].coding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system コード集で定義された医薬品コード</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.
-コード集で定義された医薬品コードへの情報</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.
-</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>C*E.1-8, C*E.10-22</t>
-  </si>
-  <si>
-    <t>MedicationRequest.medication[x].coding.id</t>
-  </si>
-  <si>
-    <t>MedicationRequest.medication[x].coding.extension</t>
-  </si>
-  <si>
-    <t>MedicationRequest.medication[x].coding.system</t>
-  </si>
-  <si>
-    <t>Identity of the terminology system</t>
-  </si>
-  <si>
-    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
-  </si>
-  <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
-  </si>
-  <si>
-    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
-  </si>
-  <si>
-    <t>Coding.system</t>
-  </si>
-  <si>
-    <t>./codeSystem</t>
-  </si>
-  <si>
-    <t>C*E.3</t>
-  </si>
-  <si>
-    <t>MedicationRequest.medication[x].coding.version</t>
-  </si>
-  <si>
-    <t>Version of the system - if relevant</t>
-  </si>
-  <si>
-    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
-  </si>
-  <si>
-    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
-  </si>
-  <si>
-    <t>Coding.version</t>
-  </si>
-  <si>
-    <t>./codeSystemVersion</t>
-  </si>
-  <si>
-    <t>C*E.7</t>
-  </si>
-  <si>
-    <t>MedicationRequest.medication[x].coding.code</t>
-  </si>
-  <si>
-    <t>Symbol in syntax defined by the system</t>
-  </si>
-  <si>
-    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
-  </si>
-  <si>
-    <t>Need to refer to a particular code in the system.</t>
-  </si>
-  <si>
-    <t>Coding.code</t>
-  </si>
-  <si>
-    <t>./code</t>
-  </si>
-  <si>
-    <t>C*E.1</t>
-  </si>
-  <si>
-    <t>MedicationRequest.medication[x].coding.display</t>
-  </si>
-  <si>
-    <t>Representation defined by the system</t>
-  </si>
-  <si>
-    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
-  </si>
-  <si>
-    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
-  </si>
-  <si>
-    <t>Coding.display</t>
-  </si>
-  <si>
-    <t>CV.displayName</t>
-  </si>
-  <si>
-    <t>C*E.2 - but note this is not well followed</t>
-  </si>
-  <si>
-    <t>MedicationRequest.medication[x].coding.userSelected</t>
-  </si>
-  <si>
-    <t>If this coding was chosen directly by the user</t>
-  </si>
-  <si>
-    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
-  </si>
-  <si>
-    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
-  </si>
-  <si>
-    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
-  </si>
-  <si>
-    <t>Coding.userSelected</t>
-  </si>
-  <si>
-    <t>CD.codingRationale</t>
-  </si>
-  <si>
-    <t>Sometimes implied by being first</t>
-  </si>
-  <si>
-    <t>MedicationRequest.medication[x].text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
-  </si>
-  <si>
-    <t>C*E.9. But note many systems use C*E.2 for this</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationCode_VS</t>
   </si>
   <si>
     <t>MedicationRequest.subject</t>
@@ -1234,7 +1049,7 @@
 一般には薬剤が投与される対象となる人（あるいはグループ)を表現するResourceに対するリンク。</t>
   </si>
   <si>
-    <t>処方オーダーの対象は必須項目である。
+    <t>処方オーダの対象は必須項目である。
 二次利用のためにどこに実際の対象がいるのかについての情報は提供されない。特定の対象に対して匿名化することも必要である。</t>
   </si>
   <si>
@@ -1265,7 +1080,7 @@
     <t>encounter/admission/stay のいずれかとして記録された診察</t>
   </si>
   <si>
-    <t>JP Core profileでの使用は規定されていない。
+    <t>JP Coreでの使用は規定されていない。
 この対象となるリソース[x]が作成される間やこの記録が作成される対象のencounterは密接に関連している。</t>
   </si>
   <si>
@@ -1294,7 +1109,7 @@
     <t>薬剤オーダについて補助的情報</t>
   </si>
   <si>
-    <t>薬剤をオーダーするときに補助的となる追加情報（たとえば、患者の身長や体重））を含む。</t>
+    <t>薬剤をオーダするときに補助的となる追加情報（たとえば、患者の身長や体重））を含む。</t>
   </si>
   <si>
     <t>参照先は実存するFHIR Resourceでなければならず(SHALL)、解決可能(アクセスコントロールや、一時的に利用不可であることなどは許容される)でなければならない(SHALL)。解決の方法はURLから取得可能であるか、Resource型が適応できるかどうか、正規のURLとして絶対的参照を扱うことができるか、ローカルのレジストリ／リポジトリから参照することができるかである。</t>
@@ -1313,10 +1128,10 @@
 </t>
   </si>
   <si>
-    <t>この処方オーダーが最初に記述された日</t>
-  </si>
-  <si>
-    <t>JP Core profileでは必須。処方指示が最初に作成された日時。秒の精度まで記録する。タイムゾーンも付与しなければならない。</t>
+    <t>この処方オーダが最初に記述された日</t>
+  </si>
+  <si>
+    <t>JP Coreでは必須。処方指示が最初に作成された日時。秒の精度まで記録する。タイムゾーンも付与しなければならない。</t>
   </si>
   <si>
     <t>Request.authoredOn</t>
@@ -1341,11 +1156,11 @@
 </t>
   </si>
   <si>
-    <t>このオーダーを発行した人・物</t>
-  </si>
-  <si>
-    <t>JP Core profileではこのエレメントに対する規定はない。
-このオーダーを発行した責任のある人、組織、機器。</t>
+    <t>このオーダを発行した人・物</t>
+  </si>
+  <si>
+    <t>JP Coreではこのエレメントに対する規定はない。
+このオーダを発行した責任のある人、組織、機器。</t>
   </si>
   <si>
     <t>Request.requester</t>
@@ -1388,7 +1203,7 @@
     <t>Performerを示さずにこのエレメントが指定された場合は、このエレメントは薬剤の投与／管理が指定の職種でなければならないと言うことを示している。Performerと共に指定された場合は、もし指定されたPerformerが実施できない場合に薬剤投与・管理を行うものについての要件が示されたことを意味する。</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_PractitionerRole_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_PractitionerRole_VS</t>
   </si>
   <si>
     <t>Request.performerType</t>
@@ -1404,11 +1219,11 @@
 </t>
   </si>
   <si>
-    <t>投薬オーダーの入力者</t>
-  </si>
-  <si>
-    <t>JP Core profileではこのエレメントに対する規定はない。
-たとえば口答指示や電話でのオーダーにより、他の人の代理で処方を入力した人。</t>
+    <t>投薬オーダの入力者</t>
+  </si>
+  <si>
+    <t>JP Coreではこのエレメントに対する規定はない。
+たとえば口答指示や電話でのオーダにより、他の人の代理で処方を入力した人。</t>
   </si>
   <si>
     <t>.participation[typeCode=TRANS].role[classCode=ASSIGNED].code (HealthcareProviderType)</t>
@@ -1424,7 +1239,7 @@
   </si>
   <si>
     <t>このエレメントに対するJP Coreの規定はない。
-薬剤をオーダーするあるいはしないことを示した理由。</t>
+薬剤をオーダするあるいはしないことを示した理由。</t>
   </si>
   <si>
     <t>このエレメントは病名コードであってもよい。もし、すべての条件を示す記録があって他の詳細な記録が必要であれば、reasonReferenceを使用すること。</t>
@@ -1461,10 +1276,10 @@
     <t>処方箋が書かれた理由について補足するCondition ResourceまたはObservation Resource</t>
   </si>
   <si>
-    <t>薬剤がなぜオーダーされたのかを説明する条件や観察。</t>
-  </si>
-  <si>
-    <t>薬剤オーダーの理由を示すこれは条件や観察についての参照である。もし、コードだけであればreasonCodeを使用すること。</t>
+    <t>薬剤がなぜオーダされたのかを説明する条件や観察。</t>
+  </si>
+  <si>
+    <t>薬剤オーダの理由を示すこれは条件や観察についての参照である。もし、コードだけであればreasonCodeを使用すること。</t>
   </si>
   <si>
     <t>Request.reasonReference</t>
@@ -1511,10 +1326,10 @@
 </t>
   </si>
   <si>
-    <t>オーダーが実施される根拠</t>
-  </si>
-  <si>
-    <t>このMedicationRequestの全部あるいは一部を満たす計画やオーダー。</t>
+    <t>オーダが実施される根拠</t>
+  </si>
+  <si>
+    <t>このMedicationRequestの全部あるいは一部を満たす計画やオーダ。</t>
   </si>
   <si>
     <t>Request.basedOn</t>
@@ -1526,7 +1341,7 @@
     <t>MedicationRequest.groupIdentifier</t>
   </si>
   <si>
-    <t>このRequestを一部とする複数のオーダーを構成するID</t>
+    <t>このRequestを一部とする複数のオーダを構成するID</t>
   </si>
   <si>
     <t>一人の処方者が同時期に前後して作成した全てのリクエストに共通するIDで、処方や薬品請求のIDを示す。</t>
@@ -1594,7 +1409,7 @@
     <t>他の属性では伝えることができなかったMedicationRequestについての付加的情報。</t>
   </si>
   <si>
-    <t>構造化されたアノテーションが内システムでは、作成者や記録時間のない一つのアノテーションで情報を伝達している。このエレメントに情報の修正を要する可能性があるためにナラティブな情報も必要としている。Annotationsには機械処理が可能で修正される（"modifying")情報を伝達することに使うべきではない(SHOULD NOT)。これがSHOULDである理由はユーザーの行動を強制することはほぼ不可能であるからである。</t>
+    <t>構造化されたアノテーションが内システムでは、作成者や記録時間のない一つのアノテーションで情報を伝達している。このエレメントに情報の修正を要する可能性があるためにナラティブな情報も必要としている。Annotationsには機械処理が可能で修正される（"modifying")情報を伝達することに使うべきではない(SHOULD NOT)。これがSHOULDである理由はユーザの行動を強制することはほぼ不可能であるからである。</t>
   </si>
   <si>
     <t>Request.note</t>
@@ -1613,10 +1428,7 @@
 </t>
   </si>
   <si>
-    <t>How the medication is/was taken or should be taken</t>
-  </si>
-  <si>
-    <t>Indicates how the medication is/was taken or should be taken by the patient.</t>
+    <t>薬の服用方法・服用した方法、または服用すべき方法</t>
   </si>
   <si>
     <t>There are examples where a medication request may include the option of an oral dose or an Intravenous or Intramuscular dose.  For example, "Ondansetron 8mg orally or IV twice a day as needed for nausea" or "Compazine® (prochlorperazine) 5-10mg PO or 25mg PR bid prn nausea or vomiting".  In these cases, two medication requests would be created that could be grouped together.  The decision on which dose and route of administration to use is based on the patient's condition at the time the dose is needed.</t>
@@ -1635,7 +1447,7 @@
     <t>調剤・払い出しについての承認事項</t>
   </si>
   <si>
-    <t>薬剤オーダー(MedicationRequest, Medication Prescription, Medication Orderなどとしても表現される）や薬剤オーダーとの一部としての薬剤の払い出しあるいは提供。この情報はオーダーとしてかならず伝えられるというわけではないことに注意。薬剤部門で調剤・払い出しを完了するための施設（たとえば病院）やシステムでのサポートに関する設定をしてもよい。</t>
+    <t>薬剤オーダ(MedicationRequest, Medication Prescription, Medication Orderなどとしても表現される）や薬剤オーダとの一部としての薬剤の払い出しあるいは提供。この情報はオーダとしてかならず伝えられるというわけではないことに注意。薬剤部門で調剤・払い出しを完了するための施設（たとえば病院）やシステムでのサポートに関する設定をしてもよい。</t>
   </si>
   <si>
     <t>Message/Body/NewRx/MedicationPrescribed/ExpirationDate</t>
@@ -1860,7 +1672,7 @@
     <t>許可されたリフィル回数</t>
   </si>
   <si>
-    <t>リフィル回数を示す整数である。患者が処方された薬を最初の払い出しから追加で受け取ることができる回数である。使用上の注意：この整数には最初の払い出しが含まれない。オーダーが「30錠に加えて3回リフィル可」であれば、このオーダーで合計で最大4回、120錠が患者に受け渡される。この数字を0とすることで，処方者がリフィルを許可しないということを明示することができる。</t>
+    <t>リフィル回数を示す整数である。患者が処方された薬を最初の払い出しから追加で受け取ることができる回数である。使用上の注意：この整数には最初の払い出しが含まれない。オーダが「30錠に加えて3回リフィル可」であれば、このオーダで合計で最大4回、120錠が患者に受け渡される。この数字を0とすることで，処方者がリフィルを許可しないということを明示することができる。</t>
   </si>
   <si>
     <t>許可された払い出し回数は，最大でこの数字に1を足したものである。</t>
@@ -1893,7 +1705,7 @@
     <t>供給される製品が使用されるか、あるいは払い出しが想定されている時間を指定する期間。</t>
   </si>
   <si>
-    <t>状況によっては、この属性は物理的に供給される量というよりも、想定されている期間に供給される薬剤の量を指定する数量の代わりに使われることもある。たとえば、薬剤が90日間供給される（オーダーされた量に基づいて）など。可能であれば、量も示した方がより正確になる。expectedSupplyDurationは外部要因に影響をうけることのある予測値である。</t>
+    <t>状況によっては、この属性は物理的に供給される量というよりも、想定されている期間に供給される薬剤の量を指定する数量の代わりに使われることもある。たとえば、薬剤が90日間供給される（オーダされた量に基づいて）など。可能であれば、量も示した方がより正確になる。expectedSupplyDurationは外部要因に影響をうけることのある予測値である。</t>
   </si>
   <si>
     <t>Message/Body/NewRx/MedicationPrescribed/Substitutions</t>
@@ -2089,7 +1901,7 @@
     <t>代替品が許可されるかどうかは無視できないので、このエレメントはmodifierとしてラベルされる。</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationSubstitutionNotAllowedReason_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationSubstitutionNotAllowedReason_VS</t>
   </si>
   <si>
     <t>code</t>
@@ -2107,7 +1919,7 @@
     <t>代替品にしなければならなかった、あるいは代替品が認められなかった理由を示す。</t>
   </si>
   <si>
-    <t>代替品の理由を表す一般的パターンに全てのターミノロジーが適応しているわけではない。情報モデルはCodeableConceptではなく、直接Codingをを使用してテキストやコーディング、翻訳、そしてエレメントと事前条件、事後条件の関係について管理するためにその構造を提示する必要がある。</t>
+    <t>代替品の理由を表す一般的パターンに全てのターミノロジが適応しているわけではない。情報モデルはCodeableConceptではなく、直接Codingをを使用してテキストやコーディング、翻訳、そしてエレメントと事前条件、事後条件の関係について管理するためにその構造を提示する必要がある。</t>
   </si>
   <si>
     <t>A coded concept describing the reason that a different medication should (or should not) be substituted from what was prescribed.</t>
@@ -2132,10 +1944,10 @@
 </t>
   </si>
   <si>
-    <t>前回のオーダー/処方</t>
-  </si>
-  <si>
-    <t>関連する先行オーダーや処方を表現するMedicationRequest Resourceへのリンク。</t>
+    <t>前回のオーダ/処方</t>
+  </si>
+  <si>
+    <t>関連する先行オーダや処方を表現するMedicationRequest Resourceへのリンク。</t>
   </si>
   <si>
     <t>Request.replaces</t>
@@ -2177,7 +1989,7 @@
     <t>ライフサイクルで関心のあるイベントのリスト</t>
   </si>
   <si>
-    <t>このリソースの現在のバージョンをユーザーから見て関係していそうなキーとなる更新や状態遷移と識別される過去のバージョンのこのリソースあるいは調剤請求あるいはEvent ResourceについてのProvenance resourceへの参照。</t>
+    <t>このリソースの現在のバージョンをユーザから見て関係していそうなキーとなる更新や状態遷移と識別される過去のバージョンのこのリソースあるいは調剤請求あるいはEvent ResourceについてのProvenance resourceへの参照。</t>
   </si>
   <si>
     <t>このエレメントには全てのバージョンのMedicationRequestについてのProvenanceが取り込まれているわけではない。「関連する」あるいは重要と思われたものだけである。現在のバージョンのResourceに関連したProvenance resourceを含めてはならない(SHALL NOT)。（もし、Provenanceとして「関連した」変化と思われれば、後の更新の一部として取り込まれる必要があるだろう。それまでは、このバージョンを_revincludeを使ってprovenanceとして指定して直接クエリーを発行することができる。全てのProvenanceがこのRequestについての履歴を対象として持つべきである。）</t>
@@ -2493,7 +2305,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN115"/>
+  <dimension ref="A1:AN104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2512,7 +2324,7 @@
     <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="82.3671875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="62.28515625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2526,7 +2338,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="121.76953125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="79.796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="75.55078125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -7147,10 +6959,10 @@
         <v>263</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -7176,13 +6988,13 @@
         <v>80</v>
       </c>
       <c r="W41" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="X41" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="X41" t="s" s="2">
+      <c r="Y41" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="Y41" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>80</v>
@@ -7215,13 +7027,13 @@
         <v>100</v>
       </c>
       <c r="AJ41" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL41" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="AK41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>80</v>
@@ -7232,7 +7044,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -7258,13 +7070,13 @@
         <v>108</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -7272,7 +7084,7 @@
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
-        <v>275</v>
+        <v>80</v>
       </c>
       <c r="R42" t="s" s="2">
         <v>80</v>
@@ -7293,10 +7105,10 @@
         <v>184</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>80</v>
@@ -7314,7 +7126,7 @@
         <v>80</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>88</v>
@@ -7329,16 +7141,16 @@
         <v>100</v>
       </c>
       <c r="AJ42" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="AM42" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="AK42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>280</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>80</v>
@@ -7346,7 +7158,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7372,13 +7184,13 @@
         <v>190</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -7408,7 +7220,7 @@
       </c>
       <c r="X43" s="2"/>
       <c r="Y43" t="s" s="2">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>80</v>
@@ -7426,7 +7238,7 @@
         <v>80</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
@@ -7444,13 +7256,13 @@
         <v>80</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>80</v>
@@ -7458,7 +7270,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7484,13 +7296,13 @@
         <v>108</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -7519,10 +7331,10 @@
         <v>184</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>80</v>
@@ -7540,7 +7352,7 @@
         <v>80</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>78</v>
@@ -7555,16 +7367,16 @@
         <v>100</v>
       </c>
       <c r="AJ44" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AM44" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="AK44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>296</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>80</v>
@@ -7572,7 +7384,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7595,16 +7407,16 @@
         <v>89</v>
       </c>
       <c r="J45" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="K45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -7654,7 +7466,7 @@
         <v>80</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>78</v>
@@ -7675,7 +7487,7 @@
         <v>80</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>80</v>
@@ -7686,7 +7498,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7709,13 +7521,13 @@
         <v>89</v>
       </c>
       <c r="J46" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>304</v>
-      </c>
-      <c r="K46" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -7766,7 +7578,7 @@
         <v>80</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
@@ -7787,7 +7599,7 @@
         <v>80</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>80</v>
@@ -7798,7 +7610,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7824,13 +7636,13 @@
         <v>190</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>311</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -7856,29 +7668,29 @@
         <v>80</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="X47" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA47" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="Y47" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="Z47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA47" t="s" s="2">
-        <v>314</v>
       </c>
       <c r="AB47" s="2"/>
       <c r="AC47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>88</v>
@@ -7893,27 +7705,27 @@
         <v>100</v>
       </c>
       <c r="AJ47" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AL47" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="AK47" t="s" s="2">
+      <c r="AM47" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="AL47" t="s" s="2">
+      <c r="AN47" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>320</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C48" t="s" s="2">
         <v>80</v>
@@ -7938,13 +7750,13 @@
         <v>190</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>311</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7973,10 +7785,10 @@
         <v>112</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>80</v>
@@ -7994,7 +7806,7 @@
         <v>80</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>88</v>
@@ -8009,24 +7821,24 @@
         <v>100</v>
       </c>
       <c r="AJ48" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AL48" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="AK48" t="s" s="2">
+      <c r="AM48" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="AL48" t="s" s="2">
+      <c r="AN48" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>320</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -8034,7 +7846,7 @@
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F49" t="s" s="2">
         <v>88</v>
@@ -8046,18 +7858,20 @@
         <v>80</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>169</v>
+        <v>323</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>170</v>
+        <v>324</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="M49" s="2"/>
+        <v>325</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>326</v>
+      </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>80</v>
@@ -8106,10 +7920,10 @@
         <v>80</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>172</v>
+        <v>322</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>88</v>
@@ -8118,38 +7932,38 @@
         <v>80</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>80</v>
+        <v>327</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>80</v>
+        <v>328</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>173</v>
+        <v>329</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>80</v>
+        <v>330</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>80</v>
+        <v>331</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>80</v>
@@ -8161,16 +7975,16 @@
         <v>80</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>133</v>
+        <v>333</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>175</v>
+        <v>334</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>176</v>
+        <v>335</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>149</v>
+        <v>336</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -8208,51 +8022,51 @@
         <v>80</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>177</v>
+        <v>80</v>
       </c>
       <c r="AC50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>178</v>
+        <v>332</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>80</v>
+        <v>337</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>80</v>
+        <v>259</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>173</v>
+        <v>338</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>80</v>
+        <v>339</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>80</v>
+        <v>340</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>326</v>
+        <v>341</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8260,7 +8074,7 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F51" t="s" s="2">
         <v>79</v>
@@ -8272,23 +8086,21 @@
         <v>80</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>327</v>
+        <v>342</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>328</v>
+        <v>343</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>329</v>
+        <v>344</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>331</v>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>80</v>
       </c>
@@ -8336,7 +8148,7 @@
         <v>80</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>78</v>
@@ -8351,24 +8163,24 @@
         <v>100</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>80</v>
+        <v>346</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>333</v>
+        <v>347</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>80</v>
+        <v>339</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>334</v>
+        <v>80</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8376,7 +8188,7 @@
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F52" t="s" s="2">
         <v>88</v>
@@ -8388,16 +8200,16 @@
         <v>80</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>169</v>
+        <v>349</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>170</v>
+        <v>350</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>171</v>
+        <v>351</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -8448,7 +8260,7 @@
         <v>80</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>172</v>
+        <v>348</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
@@ -8460,38 +8272,38 @@
         <v>80</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>80</v>
+        <v>352</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>80</v>
+        <v>353</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>80</v>
+        <v>355</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>80</v>
+        <v>356</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>336</v>
+        <v>357</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>80</v>
@@ -8500,19 +8312,19 @@
         <v>80</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>133</v>
+        <v>358</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>175</v>
+        <v>359</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>176</v>
+        <v>360</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>149</v>
+        <v>345</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -8550,43 +8362,43 @@
         <v>80</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>177</v>
+        <v>80</v>
       </c>
       <c r="AC53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>178</v>
+        <v>357</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>80</v>
+        <v>361</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>173</v>
+        <v>329</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>80</v>
+        <v>362</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>80</v>
@@ -8594,7 +8406,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>337</v>
+        <v>363</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8602,7 +8414,7 @@
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F54" t="s" s="2">
         <v>88</v>
@@ -8614,23 +8426,21 @@
         <v>80</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>102</v>
+        <v>364</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>338</v>
+        <v>365</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>339</v>
+        <v>366</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>341</v>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>80</v>
       </c>
@@ -8678,7 +8488,7 @@
         <v>80</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>342</v>
+        <v>363</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>78</v>
@@ -8693,24 +8503,24 @@
         <v>100</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>80</v>
+        <v>367</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>343</v>
+        <v>368</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>80</v>
+        <v>369</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>344</v>
+        <v>80</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>345</v>
+        <v>370</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8733,16 +8543,16 @@
         <v>89</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>346</v>
+        <v>371</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>347</v>
+        <v>372</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>348</v>
+        <v>373</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8768,13 +8578,11 @@
         <v>80</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X55" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="X55" s="2"/>
       <c r="Y55" t="s" s="2">
-        <v>80</v>
+        <v>374</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>80</v>
@@ -8792,7 +8600,7 @@
         <v>80</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>349</v>
+        <v>370</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
@@ -8807,24 +8615,24 @@
         <v>100</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>80</v>
+        <v>375</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>350</v>
+        <v>376</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>351</v>
+        <v>80</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>352</v>
+        <v>377</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8832,7 +8640,7 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F56" t="s" s="2">
         <v>88</v>
@@ -8844,21 +8652,21 @@
         <v>80</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>108</v>
+        <v>378</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>353</v>
+        <v>379</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="M56" s="2"/>
-      <c r="N56" t="s" s="2">
-        <v>355</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>80</v>
       </c>
@@ -8906,7 +8714,7 @@
         <v>80</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>356</v>
+        <v>377</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
@@ -8927,18 +8735,18 @@
         <v>80</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>357</v>
+        <v>381</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>80</v>
+        <v>382</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>358</v>
+        <v>80</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>359</v>
+        <v>383</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8949,7 +8757,7 @@
         <v>78</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>80</v>
@@ -8958,21 +8766,21 @@
         <v>80</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>360</v>
+        <v>384</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="M57" s="2"/>
-      <c r="N57" t="s" s="2">
-        <v>362</v>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>80</v>
       </c>
@@ -8996,13 +8804,13 @@
         <v>80</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>80</v>
+        <v>265</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>80</v>
+        <v>387</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>80</v>
+        <v>388</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>80</v>
@@ -9020,13 +8828,13 @@
         <v>80</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>363</v>
+        <v>383</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>80</v>
@@ -9035,24 +8843,24 @@
         <v>100</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>80</v>
+        <v>389</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>80</v>
+        <v>390</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>364</v>
+        <v>391</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>80</v>
+        <v>392</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>365</v>
+        <v>393</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>366</v>
+        <v>394</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -9063,7 +8871,7 @@
         <v>78</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>80</v>
@@ -9072,23 +8880,21 @@
         <v>80</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>298</v>
+        <v>395</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>367</v>
+        <v>396</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>368</v>
+        <v>397</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>370</v>
-      </c>
+        <v>398</v>
+      </c>
+      <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>80</v>
       </c>
@@ -9136,13 +8942,13 @@
         <v>80</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>371</v>
+        <v>394</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>80</v>
@@ -9151,24 +8957,24 @@
         <v>100</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>80</v>
+        <v>399</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>80</v>
+        <v>259</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>372</v>
+        <v>400</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>80</v>
+        <v>392</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>373</v>
+        <v>80</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>374</v>
+        <v>401</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -9179,7 +8985,7 @@
         <v>78</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>80</v>
@@ -9191,20 +8997,18 @@
         <v>89</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>169</v>
+        <v>402</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>375</v>
+        <v>403</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>376</v>
+        <v>404</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>378</v>
-      </c>
+        <v>405</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>80</v>
       </c>
@@ -9252,13 +9056,13 @@
         <v>80</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>379</v>
+        <v>401</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>80</v>
@@ -9267,24 +9071,24 @@
         <v>100</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>80</v>
+        <v>406</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>380</v>
+        <v>407</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>381</v>
+        <v>80</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>382</v>
+        <v>408</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9292,10 +9096,10 @@
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>80</v>
@@ -9307,16 +9111,16 @@
         <v>89</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>383</v>
+        <v>102</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>384</v>
+        <v>409</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>385</v>
+        <v>404</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>386</v>
+        <v>410</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
@@ -9366,13 +9170,13 @@
         <v>80</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>382</v>
+        <v>408</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>80</v>
@@ -9381,24 +9185,24 @@
         <v>100</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>387</v>
+        <v>80</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>388</v>
+        <v>80</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>389</v>
+        <v>407</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>390</v>
+        <v>80</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>391</v>
+        <v>80</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>392</v>
+        <v>411</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9409,7 +9213,7 @@
         <v>78</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>80</v>
@@ -9418,19 +9222,19 @@
         <v>80</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>393</v>
+        <v>412</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>394</v>
+        <v>413</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>395</v>
+        <v>414</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>396</v>
+        <v>345</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -9480,13 +9284,13 @@
         <v>80</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>392</v>
+        <v>411</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>80</v>
@@ -9495,24 +9299,24 @@
         <v>100</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>397</v>
+        <v>415</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>259</v>
+        <v>80</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>398</v>
+        <v>416</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>399</v>
+        <v>80</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>400</v>
+        <v>80</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>401</v>
+        <v>417</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9523,7 +9327,7 @@
         <v>78</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>80</v>
@@ -9532,21 +9336,21 @@
         <v>80</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>402</v>
+        <v>154</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>403</v>
+        <v>418</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="N62" s="2"/>
+        <v>419</v>
+      </c>
+      <c r="M62" s="2"/>
+      <c r="N62" t="s" s="2">
+        <v>420</v>
+      </c>
       <c r="O62" t="s" s="2">
         <v>80</v>
       </c>
@@ -9594,13 +9398,13 @@
         <v>80</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>401</v>
+        <v>417</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>80</v>
@@ -9609,16 +9413,16 @@
         <v>100</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>406</v>
+        <v>421</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>407</v>
+        <v>422</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>399</v>
+        <v>80</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>80</v>
@@ -9626,7 +9430,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>408</v>
+        <v>423</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9634,7 +9438,7 @@
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F63" t="s" s="2">
         <v>88</v>
@@ -9646,18 +9450,20 @@
         <v>80</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>409</v>
+        <v>190</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>410</v>
+        <v>424</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="M63" s="2"/>
+        <v>425</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>426</v>
+      </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>80</v>
@@ -9682,13 +9488,13 @@
         <v>80</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>80</v>
+        <v>265</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>80</v>
+        <v>427</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>80</v>
+        <v>428</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>80</v>
@@ -9706,7 +9512,7 @@
         <v>80</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>408</v>
+        <v>423</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>78</v>
@@ -9721,24 +9527,24 @@
         <v>100</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>412</v>
+        <v>80</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>413</v>
+        <v>80</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>414</v>
+        <v>429</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>415</v>
+        <v>80</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>416</v>
+        <v>80</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>417</v>
+        <v>430</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9749,7 +9555,7 @@
         <v>78</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>80</v>
@@ -9758,19 +9564,19 @@
         <v>80</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>418</v>
+        <v>431</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>419</v>
+        <v>432</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>420</v>
+        <v>433</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>405</v>
+        <v>345</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -9820,13 +9626,13 @@
         <v>80</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>417</v>
+        <v>430</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>80</v>
@@ -9835,16 +9641,16 @@
         <v>100</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>421</v>
+        <v>434</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>389</v>
+        <v>435</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>422</v>
+        <v>80</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>80</v>
@@ -9852,7 +9658,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>423</v>
+        <v>436</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9863,7 +9669,7 @@
         <v>78</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>80</v>
@@ -9875,16 +9681,16 @@
         <v>80</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>424</v>
+        <v>437</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>425</v>
+        <v>438</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>426</v>
+        <v>439</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>405</v>
+        <v>440</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -9934,13 +9740,13 @@
         <v>80</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>423</v>
+        <v>436</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>80</v>
@@ -9949,16 +9755,16 @@
         <v>100</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>427</v>
+        <v>441</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>80</v>
+        <v>442</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>428</v>
+        <v>443</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>429</v>
+        <v>80</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>80</v>
@@ -9966,7 +9772,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>430</v>
+        <v>444</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9977,7 +9783,7 @@
         <v>78</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>80</v>
@@ -9986,19 +9792,19 @@
         <v>80</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>190</v>
+        <v>445</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>432</v>
+        <v>446</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>433</v>
+        <v>447</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -10024,11 +9830,13 @@
         <v>80</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="X66" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="Y66" t="s" s="2">
-        <v>434</v>
+        <v>80</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>80</v>
@@ -10046,13 +9854,13 @@
         <v>80</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>430</v>
+        <v>444</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>80</v>
@@ -10061,13 +9869,13 @@
         <v>100</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>435</v>
+        <v>80</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>436</v>
+        <v>448</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>80</v>
@@ -10078,7 +9886,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>437</v>
+        <v>449</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -10101,17 +9909,15 @@
         <v>80</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>438</v>
+        <v>450</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>439</v>
+        <v>451</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>405</v>
-      </c>
+        <v>452</v>
+      </c>
+      <c r="M67" s="2"/>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>80</v>
@@ -10160,7 +9966,7 @@
         <v>80</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>437</v>
+        <v>449</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>78</v>
@@ -10178,13 +9984,13 @@
         <v>80</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>80</v>
+        <v>453</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>441</v>
+        <v>454</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>442</v>
+        <v>80</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>80</v>
@@ -10192,7 +9998,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>443</v>
+        <v>455</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10203,7 +10009,7 @@
         <v>78</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>80</v>
@@ -10215,17 +10021,15 @@
         <v>80</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>444</v>
+        <v>456</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>446</v>
-      </c>
+        <v>457</v>
+      </c>
+      <c r="M68" s="2"/>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>80</v>
@@ -10250,13 +10054,13 @@
         <v>80</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>266</v>
+        <v>80</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>447</v>
+        <v>80</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>448</v>
+        <v>80</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>80</v>
@@ -10274,39 +10078,39 @@
         <v>80</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>443</v>
+        <v>172</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>449</v>
+        <v>80</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>450</v>
+        <v>80</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>451</v>
+        <v>173</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>452</v>
+        <v>80</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>453</v>
+        <v>80</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10329,17 +10133,15 @@
         <v>80</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>455</v>
+        <v>133</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>456</v>
+        <v>134</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>458</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="M69" s="2"/>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>80</v>
@@ -10376,19 +10178,17 @@
         <v>80</v>
       </c>
       <c r="AA69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="AB69" s="2"/>
       <c r="AC69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD69" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>454</v>
+        <v>178</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>78</v>
@@ -10400,19 +10200,19 @@
         <v>80</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>459</v>
+        <v>80</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>259</v>
+        <v>80</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>460</v>
+        <v>80</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>452</v>
+        <v>80</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>80</v>
@@ -10420,9 +10220,11 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="B70" s="2"/>
+        <v>458</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>459</v>
+      </c>
       <c r="C70" t="s" s="2">
         <v>80</v>
       </c>
@@ -10440,20 +10242,18 @@
         <v>80</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J70" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="K70" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>465</v>
-      </c>
+      <c r="M70" s="2"/>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>80</v>
@@ -10502,7 +10302,7 @@
         <v>80</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>461</v>
+        <v>178</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>78</v>
@@ -10511,19 +10311,19 @@
         <v>79</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>466</v>
+        <v>80</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>467</v>
+        <v>80</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>80</v>
@@ -10534,9 +10334,11 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="B71" s="2"/>
+        <v>458</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>463</v>
+      </c>
       <c r="C71" t="s" s="2">
         <v>80</v>
       </c>
@@ -10545,7 +10347,7 @@
         <v>78</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>80</v>
@@ -10554,20 +10356,18 @@
         <v>80</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>102</v>
+        <v>464</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>470</v>
-      </c>
+        <v>466</v>
+      </c>
+      <c r="M71" s="2"/>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>80</v>
@@ -10616,7 +10416,7 @@
         <v>80</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>468</v>
+        <v>178</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>78</v>
@@ -10625,10 +10425,10 @@
         <v>79</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>80</v>
@@ -10637,7 +10437,7 @@
         <v>80</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>467</v>
+        <v>80</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>80</v>
@@ -10648,11 +10448,11 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>80</v>
+        <v>468</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -10665,24 +10465,26 @@
         <v>80</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I72" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>472</v>
+        <v>133</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="N72" s="2"/>
+        <v>149</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="O72" t="s" s="2">
         <v>80</v>
       </c>
@@ -10742,16 +10544,16 @@
         <v>80</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>475</v>
+        <v>80</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>476</v>
+        <v>131</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>80</v>
@@ -10762,7 +10564,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10782,21 +10584,21 @@
         <v>80</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>154</v>
+        <v>450</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="M73" s="2"/>
-      <c r="N73" t="s" s="2">
-        <v>480</v>
-      </c>
+        <v>474</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>80</v>
       </c>
@@ -10844,7 +10646,7 @@
         <v>80</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>78</v>
@@ -10859,13 +10661,13 @@
         <v>100</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>481</v>
+        <v>80</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>80</v>
@@ -10876,7 +10678,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10899,17 +10701,15 @@
         <v>80</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>484</v>
+        <v>170</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>486</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="M74" s="2"/>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>80</v>
@@ -10934,13 +10734,13 @@
         <v>80</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>266</v>
+        <v>80</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>487</v>
+        <v>80</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>488</v>
+        <v>80</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>80</v>
@@ -10958,7 +10758,7 @@
         <v>80</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>483</v>
+        <v>172</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>78</v>
@@ -10970,7 +10770,7 @@
         <v>80</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>80</v>
@@ -10979,7 +10779,7 @@
         <v>80</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>489</v>
+        <v>173</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>80</v>
@@ -10990,11 +10790,11 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -11013,16 +10813,16 @@
         <v>80</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>491</v>
+        <v>133</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>492</v>
+        <v>175</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>493</v>
+        <v>176</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>405</v>
+        <v>149</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
@@ -11072,7 +10872,7 @@
         <v>80</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>490</v>
+        <v>178</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>78</v>
@@ -11084,16 +10884,16 @@
         <v>80</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>494</v>
+        <v>80</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>495</v>
+        <v>173</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>80</v>
@@ -11104,11 +10904,11 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>496</v>
+        <v>479</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>80</v>
+        <v>468</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
@@ -11121,24 +10921,26 @@
         <v>80</v>
       </c>
       <c r="H76" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>497</v>
+        <v>133</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>498</v>
+        <v>469</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>499</v>
+        <v>470</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="N76" s="2"/>
+        <v>149</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="O76" t="s" s="2">
         <v>80</v>
       </c>
@@ -11186,7 +10988,7 @@
         <v>80</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>496</v>
+        <v>471</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>78</v>
@@ -11198,16 +11000,16 @@
         <v>80</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>501</v>
+        <v>80</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>502</v>
+        <v>80</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>503</v>
+        <v>131</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>80</v>
@@ -11218,7 +11020,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>504</v>
+        <v>480</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11229,7 +11031,7 @@
         <v>78</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>80</v>
@@ -11241,16 +11043,16 @@
         <v>80</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>505</v>
+        <v>481</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>506</v>
+        <v>482</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>507</v>
+        <v>483</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>508</v>
+        <v>484</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
@@ -11300,19 +11102,19 @@
         <v>80</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>504</v>
+        <v>480</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>100</v>
+        <v>485</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>80</v>
@@ -11321,18 +11123,18 @@
         <v>80</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>509</v>
+        <v>486</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>80</v>
+        <v>487</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>510</v>
+        <v>488</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11355,15 +11157,17 @@
         <v>80</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>511</v>
+        <v>489</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>512</v>
+        <v>490</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="M78" s="2"/>
+        <v>491</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>484</v>
+      </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
         <v>80</v>
@@ -11412,7 +11216,7 @@
         <v>80</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>510</v>
+        <v>488</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>78</v>
@@ -11430,10 +11234,10 @@
         <v>80</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>514</v>
+        <v>80</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>515</v>
+        <v>492</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>80</v>
@@ -11444,7 +11248,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>516</v>
+        <v>493</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11467,15 +11271,17 @@
         <v>80</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>169</v>
+        <v>489</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>517</v>
+        <v>494</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="M79" s="2"/>
+        <v>495</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>484</v>
+      </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>80</v>
@@ -11524,7 +11330,7 @@
         <v>80</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>172</v>
+        <v>493</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>78</v>
@@ -11536,7 +11342,7 @@
         <v>80</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>80</v>
@@ -11545,7 +11351,7 @@
         <v>80</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>173</v>
+        <v>492</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>80</v>
@@ -11556,7 +11362,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>519</v>
+        <v>496</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11567,7 +11373,7 @@
         <v>78</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>80</v>
@@ -11579,16 +11385,20 @@
         <v>80</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>133</v>
+        <v>219</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>134</v>
+        <v>497</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="M80" s="2"/>
-      <c r="N80" s="2"/>
+        <v>498</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>500</v>
+      </c>
       <c r="O80" t="s" s="2">
         <v>80</v>
       </c>
@@ -11624,38 +11434,40 @@
         <v>80</v>
       </c>
       <c r="AA80" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AB80" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AC80" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD80" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>178</v>
+        <v>496</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>80</v>
+        <v>501</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>80</v>
+        <v>502</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>80</v>
@@ -11666,11 +11478,9 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="B81" t="s" s="2">
-        <v>520</v>
-      </c>
+        <v>503</v>
+      </c>
+      <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
         <v>80</v>
       </c>
@@ -11679,7 +11489,7 @@
         <v>78</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>80</v>
@@ -11691,13 +11501,13 @@
         <v>80</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>521</v>
+        <v>169</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>522</v>
+        <v>170</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>523</v>
+        <v>171</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -11748,19 +11558,19 @@
         <v>80</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>80</v>
@@ -11769,7 +11579,7 @@
         <v>80</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>80</v>
+        <v>173</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>80</v>
@@ -11780,20 +11590,18 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="B82" t="s" s="2">
-        <v>524</v>
-      </c>
+        <v>504</v>
+      </c>
+      <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>80</v>
@@ -11805,15 +11613,17 @@
         <v>80</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>525</v>
+        <v>133</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>526</v>
+        <v>175</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="M82" s="2"/>
+        <v>176</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
         <v>80</v>
@@ -11850,16 +11660,16 @@
         <v>80</v>
       </c>
       <c r="AA82" t="s" s="2">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="AB82" t="s" s="2">
-        <v>80</v>
+        <v>177</v>
       </c>
       <c r="AC82" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD82" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AE82" t="s" s="2">
         <v>178</v>
@@ -11871,7 +11681,7 @@
         <v>79</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>139</v>
@@ -11883,7 +11693,7 @@
         <v>80</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>80</v>
+        <v>173</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>80</v>
@@ -11894,43 +11704,41 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>528</v>
+        <v>505</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>529</v>
+        <v>80</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H83" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I83" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>133</v>
+        <v>349</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>530</v>
+        <v>506</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>531</v>
+        <v>507</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>508</v>
+      </c>
+      <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
         <v>80</v>
       </c>
@@ -11978,19 +11786,19 @@
         <v>80</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>532</v>
+        <v>509</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>80</v>
+        <v>510</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>80</v>
@@ -11999,18 +11807,18 @@
         <v>80</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>131</v>
+        <v>511</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>80</v>
+        <v>512</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>533</v>
+        <v>513</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -12030,25 +11838,27 @@
         <v>80</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>511</v>
+        <v>349</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>534</v>
+        <v>514</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>535</v>
+        <v>515</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>536</v>
+        <v>516</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="P84" s="2"/>
+      <c r="P84" t="s" s="2">
+        <v>517</v>
+      </c>
       <c r="Q84" t="s" s="2">
         <v>80</v>
       </c>
@@ -12092,7 +11902,7 @@
         <v>80</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>533</v>
+        <v>518</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>78</v>
@@ -12101,7 +11911,7 @@
         <v>88</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>80</v>
+        <v>510</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>100</v>
@@ -12113,18 +11923,18 @@
         <v>80</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>537</v>
+        <v>519</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>80</v>
+        <v>520</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>538</v>
+        <v>521</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -12147,15 +11957,17 @@
         <v>80</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>169</v>
+        <v>522</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>170</v>
+        <v>523</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="M85" s="2"/>
+        <v>524</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>525</v>
+      </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
         <v>80</v>
@@ -12204,7 +12016,7 @@
         <v>80</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>172</v>
+        <v>521</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>78</v>
@@ -12216,38 +12028,38 @@
         <v>80</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>80</v>
+        <v>526</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>173</v>
+        <v>527</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>80</v>
+        <v>528</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F86" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G86" t="s" s="2">
         <v>80</v>
@@ -12259,16 +12071,16 @@
         <v>80</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>133</v>
+        <v>481</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>175</v>
+        <v>530</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>176</v>
+        <v>531</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>149</v>
+        <v>484</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
@@ -12318,19 +12130,19 @@
         <v>80</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>178</v>
+        <v>529</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>139</v>
+        <v>485</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>80</v>
@@ -12339,54 +12151,52 @@
         <v>80</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>173</v>
+        <v>486</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>80</v>
+        <v>487</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
-        <v>529</v>
+        <v>80</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H87" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I87" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>133</v>
+        <v>489</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>535</v>
+      </c>
+      <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
         <v>80</v>
       </c>
@@ -12440,22 +12250,22 @@
         <v>78</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>80</v>
+        <v>536</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>131</v>
+        <v>537</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>80</v>
@@ -12466,7 +12276,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12489,17 +12299,15 @@
         <v>80</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>542</v>
+        <v>169</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>543</v>
+        <v>170</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>545</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="M88" s="2"/>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
         <v>80</v>
@@ -12548,7 +12356,7 @@
         <v>80</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>541</v>
+        <v>172</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>78</v>
@@ -12557,10 +12365,10 @@
         <v>88</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>546</v>
+        <v>80</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>80</v>
@@ -12569,29 +12377,29 @@
         <v>80</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>547</v>
+        <v>173</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>548</v>
+        <v>80</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F89" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G89" t="s" s="2">
         <v>80</v>
@@ -12603,16 +12411,16 @@
         <v>80</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>550</v>
+        <v>133</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>551</v>
+        <v>175</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>552</v>
+        <v>176</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>545</v>
+        <v>149</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
@@ -12650,31 +12458,31 @@
         <v>80</v>
       </c>
       <c r="AA89" t="s" s="2">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="AB89" t="s" s="2">
-        <v>80</v>
+        <v>177</v>
       </c>
       <c r="AC89" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD89" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>549</v>
+        <v>178</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>80</v>
@@ -12683,7 +12491,7 @@
         <v>80</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>553</v>
+        <v>173</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>80</v>
@@ -12694,7 +12502,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>554</v>
+        <v>540</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12714,21 +12522,23 @@
         <v>80</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>555</v>
+        <v>542</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>556</v>
+        <v>543</v>
       </c>
       <c r="M90" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="N90" t="s" s="2">
         <v>545</v>
       </c>
-      <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
         <v>80</v>
       </c>
@@ -12776,7 +12586,7 @@
         <v>80</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>78</v>
@@ -12797,18 +12607,18 @@
         <v>80</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>80</v>
+        <v>548</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12825,30 +12635,30 @@
         <v>80</v>
       </c>
       <c r="H91" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I91" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>219</v>
+        <v>108</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>560</v>
-      </c>
+        <v>551</v>
+      </c>
+      <c r="M91" s="2"/>
       <c r="N91" t="s" s="2">
-        <v>561</v>
+        <v>552</v>
       </c>
       <c r="O91" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="P91" s="2"/>
+      <c r="P91" t="s" s="2">
+        <v>553</v>
+      </c>
       <c r="Q91" t="s" s="2">
         <v>80</v>
       </c>
@@ -12868,13 +12678,13 @@
         <v>80</v>
       </c>
       <c r="W91" t="s" s="2">
-        <v>80</v>
+        <v>184</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>80</v>
+        <v>554</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>80</v>
+        <v>555</v>
       </c>
       <c r="Z91" t="s" s="2">
         <v>80</v>
@@ -12892,7 +12702,7 @@
         <v>80</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>78</v>
@@ -12910,21 +12720,21 @@
         <v>80</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>562</v>
+        <v>80</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>80</v>
+        <v>558</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12944,25 +12754,27 @@
         <v>80</v>
       </c>
       <c r="I92" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J92" t="s" s="2">
         <v>169</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>170</v>
+        <v>560</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>171</v>
+        <v>561</v>
       </c>
       <c r="M92" s="2"/>
-      <c r="N92" s="2"/>
+      <c r="N92" t="s" s="2">
+        <v>562</v>
+      </c>
       <c r="O92" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P92" s="2"/>
       <c r="Q92" t="s" s="2">
-        <v>80</v>
+        <v>563</v>
       </c>
       <c r="R92" t="s" s="2">
         <v>80</v>
@@ -13004,7 +12816,7 @@
         <v>80</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>172</v>
+        <v>564</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>78</v>
@@ -13016,7 +12828,7 @@
         <v>80</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>80</v>
@@ -13025,29 +12837,29 @@
         <v>80</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>173</v>
+        <v>565</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>80</v>
+        <v>566</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F93" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G93" t="s" s="2">
         <v>80</v>
@@ -13056,27 +12868,27 @@
         <v>80</v>
       </c>
       <c r="I93" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>175</v>
+        <v>568</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N93" s="2"/>
+        <v>569</v>
+      </c>
+      <c r="M93" s="2"/>
+      <c r="N93" t="s" s="2">
+        <v>570</v>
+      </c>
       <c r="O93" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P93" s="2"/>
       <c r="Q93" t="s" s="2">
-        <v>80</v>
+        <v>571</v>
       </c>
       <c r="R93" t="s" s="2">
         <v>80</v>
@@ -13106,31 +12918,31 @@
         <v>80</v>
       </c>
       <c r="AA93" t="s" s="2">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="AB93" t="s" s="2">
-        <v>177</v>
+        <v>80</v>
       </c>
       <c r="AC93" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD93" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>178</v>
+        <v>572</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>80</v>
+        <v>573</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>80</v>
@@ -13139,18 +12951,18 @@
         <v>80</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>173</v>
+        <v>574</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>80</v>
+        <v>566</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>566</v>
+        <v>575</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -13173,24 +12985,26 @@
         <v>89</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>409</v>
+        <v>108</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>567</v>
+        <v>576</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>568</v>
+        <v>577</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="N94" s="2"/>
+        <v>578</v>
+      </c>
+      <c r="N94" t="s" s="2">
+        <v>579</v>
+      </c>
       <c r="O94" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P94" s="2"/>
       <c r="Q94" t="s" s="2">
-        <v>80</v>
+        <v>580</v>
       </c>
       <c r="R94" t="s" s="2">
         <v>80</v>
@@ -13232,7 +13046,7 @@
         <v>80</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>570</v>
+        <v>581</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>78</v>
@@ -13241,7 +13055,7 @@
         <v>88</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>571</v>
+        <v>80</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>100</v>
@@ -13253,18 +13067,18 @@
         <v>80</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>572</v>
+        <v>582</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>573</v>
+        <v>566</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>574</v>
+        <v>583</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -13284,27 +13098,25 @@
         <v>80</v>
       </c>
       <c r="I95" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>409</v>
+        <v>584</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>575</v>
+        <v>585</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>576</v>
+        <v>586</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>577</v>
+        <v>345</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="P95" t="s" s="2">
-        <v>578</v>
-      </c>
+      <c r="P95" s="2"/>
       <c r="Q95" t="s" s="2">
         <v>80</v>
       </c>
@@ -13348,7 +13160,7 @@
         <v>80</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>78</v>
@@ -13357,7 +13169,7 @@
         <v>88</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>571</v>
+        <v>80</v>
       </c>
       <c r="AI95" t="s" s="2">
         <v>100</v>
@@ -13369,18 +13181,18 @@
         <v>80</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>580</v>
+        <v>587</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>80</v>
+        <v>382</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>581</v>
+        <v>80</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13403,17 +13215,15 @@
         <v>80</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>583</v>
+        <v>450</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>585</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>586</v>
-      </c>
+        <v>590</v>
+      </c>
+      <c r="M96" s="2"/>
       <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
         <v>80</v>
@@ -13462,7 +13272,7 @@
         <v>80</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>78</v>
@@ -13480,21 +13290,21 @@
         <v>80</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>589</v>
+        <v>80</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13517,17 +13327,15 @@
         <v>80</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>542</v>
+        <v>169</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>591</v>
+        <v>170</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>592</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>545</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="M97" s="2"/>
       <c r="N97" s="2"/>
       <c r="O97" t="s" s="2">
         <v>80</v>
@@ -13576,7 +13384,7 @@
         <v>80</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>590</v>
+        <v>172</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>78</v>
@@ -13585,10 +13393,10 @@
         <v>88</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>546</v>
+        <v>80</v>
       </c>
       <c r="AJ97" t="s" s="2">
         <v>80</v>
@@ -13597,29 +13405,29 @@
         <v>80</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>547</v>
+        <v>173</v>
       </c>
       <c r="AM97" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>548</v>
+        <v>80</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F98" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G98" t="s" s="2">
         <v>80</v>
@@ -13631,16 +13439,16 @@
         <v>80</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>550</v>
+        <v>133</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>594</v>
+        <v>175</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>595</v>
+        <v>176</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>596</v>
+        <v>149</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
@@ -13690,28 +13498,28 @@
         <v>80</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>593</v>
+        <v>178</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH98" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ98" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>597</v>
+        <v>80</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>598</v>
+        <v>173</v>
       </c>
       <c r="AM98" t="s" s="2">
         <v>80</v>
@@ -13722,39 +13530,43 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
-        <v>80</v>
+        <v>468</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F99" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G99" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H99" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I99" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>169</v>
+        <v>133</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>170</v>
+        <v>469</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="M99" s="2"/>
-      <c r="N99" s="2"/>
+        <v>470</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="N99" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="O99" t="s" s="2">
         <v>80</v>
       </c>
@@ -13802,19 +13614,19 @@
         <v>80</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>172</v>
+        <v>471</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH99" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AJ99" t="s" s="2">
         <v>80</v>
@@ -13823,7 +13635,7 @@
         <v>80</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>173</v>
+        <v>131</v>
       </c>
       <c r="AM99" t="s" s="2">
         <v>80</v>
@@ -13834,18 +13646,18 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F100" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G100" t="s" s="2">
         <v>80</v>
@@ -13857,16 +13669,16 @@
         <v>80</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>133</v>
+        <v>190</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>175</v>
+        <v>589</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>176</v>
+        <v>597</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>149</v>
+        <v>598</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
@@ -13892,63 +13704,61 @@
         <v>80</v>
       </c>
       <c r="W100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X100" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="X100" s="2"/>
       <c r="Y100" t="s" s="2">
-        <v>80</v>
+        <v>599</v>
       </c>
       <c r="Z100" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AA100" t="s" s="2">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="AB100" t="s" s="2">
-        <v>177</v>
+        <v>80</v>
       </c>
       <c r="AC100" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD100" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>178</v>
+        <v>596</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH100" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI100" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ100" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>80</v>
+        <v>591</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>173</v>
+        <v>600</v>
       </c>
       <c r="AM100" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>80</v>
+        <v>601</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -13968,10 +13778,10 @@
         <v>80</v>
       </c>
       <c r="I101" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>602</v>
+        <v>190</v>
       </c>
       <c r="K101" t="s" s="2">
         <v>603</v>
@@ -13982,9 +13792,7 @@
       <c r="M101" t="s" s="2">
         <v>605</v>
       </c>
-      <c r="N101" t="s" s="2">
-        <v>606</v>
-      </c>
+      <c r="N101" s="2"/>
       <c r="O101" t="s" s="2">
         <v>80</v>
       </c>
@@ -14008,13 +13816,13 @@
         <v>80</v>
       </c>
       <c r="W101" t="s" s="2">
-        <v>80</v>
+        <v>265</v>
       </c>
       <c r="X101" t="s" s="2">
-        <v>80</v>
+        <v>606</v>
       </c>
       <c r="Y101" t="s" s="2">
-        <v>80</v>
+        <v>607</v>
       </c>
       <c r="Z101" t="s" s="2">
         <v>80</v>
@@ -14032,7 +13840,7 @@
         <v>80</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>78</v>
@@ -14050,21 +13858,21 @@
         <v>80</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>80</v>
+        <v>608</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AM101" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -14081,74 +13889,72 @@
         <v>80</v>
       </c>
       <c r="H102" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I102" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>108</v>
+        <v>612</v>
       </c>
       <c r="K102" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="L102" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="M102" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="N102" s="2"/>
+      <c r="O102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P102" s="2"/>
+      <c r="Q102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE102" t="s" s="2">
         <v>611</v>
-      </c>
-      <c r="L102" t="s" s="2">
-        <v>612</v>
-      </c>
-      <c r="M102" s="2"/>
-      <c r="N102" t="s" s="2">
-        <v>613</v>
-      </c>
-      <c r="O102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P102" t="s" s="2">
-        <v>614</v>
-      </c>
-      <c r="Q102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W102" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="X102" t="s" s="2">
-        <v>615</v>
-      </c>
-      <c r="Y102" t="s" s="2">
-        <v>616</v>
-      </c>
-      <c r="Z102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE102" t="s" s="2">
-        <v>617</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>78</v>
@@ -14163,35 +13969,35 @@
         <v>100</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>80</v>
+        <v>615</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>80</v>
+        <v>608</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="AM102" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>619</v>
+        <v>80</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
-        <v>80</v>
+        <v>618</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F103" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G103" t="s" s="2">
         <v>80</v>
@@ -14200,27 +14006,27 @@
         <v>80</v>
       </c>
       <c r="I103" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>169</v>
+        <v>619</v>
       </c>
       <c r="K103" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="L103" t="s" s="2">
         <v>621</v>
       </c>
-      <c r="L103" t="s" s="2">
+      <c r="M103" t="s" s="2">
         <v>622</v>
       </c>
-      <c r="M103" s="2"/>
-      <c r="N103" t="s" s="2">
-        <v>623</v>
-      </c>
+      <c r="N103" s="2"/>
       <c r="O103" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P103" s="2"/>
       <c r="Q103" t="s" s="2">
-        <v>624</v>
+        <v>80</v>
       </c>
       <c r="R103" t="s" s="2">
         <v>80</v>
@@ -14262,13 +14068,13 @@
         <v>80</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG103" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH103" t="s" s="2">
         <v>80</v>
@@ -14283,18 +14089,18 @@
         <v>80</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="AM103" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>627</v>
+        <v>80</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -14305,7 +14111,7 @@
         <v>78</v>
       </c>
       <c r="F104" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G104" t="s" s="2">
         <v>80</v>
@@ -14314,27 +14120,27 @@
         <v>80</v>
       </c>
       <c r="I104" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>102</v>
+        <v>625</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>630</v>
-      </c>
-      <c r="M104" s="2"/>
-      <c r="N104" t="s" s="2">
-        <v>631</v>
-      </c>
+        <v>627</v>
+      </c>
+      <c r="M104" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="N104" s="2"/>
       <c r="O104" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P104" s="2"/>
       <c r="Q104" t="s" s="2">
-        <v>632</v>
+        <v>80</v>
       </c>
       <c r="R104" t="s" s="2">
         <v>80</v>
@@ -14376,1285 +14182,33 @@
         <v>80</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>633</v>
+        <v>624</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG104" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH104" t="s" s="2">
-        <v>634</v>
+        <v>80</v>
       </c>
       <c r="AI104" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>80</v>
+        <v>629</v>
       </c>
       <c r="AK104" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="AM104" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="s" s="2">
-        <v>636</v>
-      </c>
-      <c r="B105" s="2"/>
-      <c r="C105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="D105" s="2"/>
-      <c r="E105" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F105" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I105" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="J105" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="K105" t="s" s="2">
-        <v>637</v>
-      </c>
-      <c r="L105" t="s" s="2">
-        <v>638</v>
-      </c>
-      <c r="M105" t="s" s="2">
-        <v>639</v>
-      </c>
-      <c r="N105" t="s" s="2">
-        <v>640</v>
-      </c>
-      <c r="O105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P105" s="2"/>
-      <c r="Q105" t="s" s="2">
-        <v>641</v>
-      </c>
-      <c r="R105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE105" t="s" s="2">
-        <v>642</v>
-      </c>
-      <c r="AF105" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG105" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI105" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL105" t="s" s="2">
-        <v>643</v>
-      </c>
-      <c r="AM105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN105" t="s" s="2">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="s" s="2">
-        <v>644</v>
-      </c>
-      <c r="B106" s="2"/>
-      <c r="C106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="D106" s="2"/>
-      <c r="E106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F106" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J106" t="s" s="2">
-        <v>645</v>
-      </c>
-      <c r="K106" t="s" s="2">
-        <v>646</v>
-      </c>
-      <c r="L106" t="s" s="2">
-        <v>647</v>
-      </c>
-      <c r="M106" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="N106" s="2"/>
-      <c r="O106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P106" s="2"/>
-      <c r="Q106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE106" t="s" s="2">
-        <v>644</v>
-      </c>
-      <c r="AF106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG106" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI106" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL106" t="s" s="2">
-        <v>648</v>
-      </c>
-      <c r="AM106" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="AN106" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="s" s="2">
-        <v>649</v>
-      </c>
-      <c r="B107" s="2"/>
-      <c r="C107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="D107" s="2"/>
-      <c r="E107" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F107" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J107" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="K107" t="s" s="2">
-        <v>650</v>
-      </c>
-      <c r="L107" t="s" s="2">
-        <v>651</v>
-      </c>
-      <c r="M107" s="2"/>
-      <c r="N107" s="2"/>
-      <c r="O107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P107" s="2"/>
-      <c r="Q107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE107" t="s" s="2">
-        <v>649</v>
-      </c>
-      <c r="AF107" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG107" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI107" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK107" t="s" s="2">
-        <v>652</v>
-      </c>
-      <c r="AL107" t="s" s="2">
-        <v>653</v>
-      </c>
-      <c r="AM107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN107" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="s" s="2">
-        <v>654</v>
-      </c>
-      <c r="B108" s="2"/>
-      <c r="C108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="D108" s="2"/>
-      <c r="E108" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F108" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J108" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="K108" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="L108" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="M108" s="2"/>
-      <c r="N108" s="2"/>
-      <c r="O108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P108" s="2"/>
-      <c r="Q108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE108" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="AF108" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG108" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL108" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="AM108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN108" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="s" s="2">
-        <v>655</v>
-      </c>
-      <c r="B109" s="2"/>
-      <c r="C109" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="D109" s="2"/>
-      <c r="E109" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F109" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J109" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="K109" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="L109" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="M109" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N109" s="2"/>
-      <c r="O109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P109" s="2"/>
-      <c r="Q109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE109" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="AF109" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG109" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI109" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AJ109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL109" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="AM109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN109" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="s" s="2">
-        <v>656</v>
-      </c>
-      <c r="B110" s="2"/>
-      <c r="C110" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="D110" s="2"/>
-      <c r="E110" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F110" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H110" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="I110" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="J110" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="K110" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="L110" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="M110" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N110" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="O110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P110" s="2"/>
-      <c r="Q110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE110" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="AF110" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG110" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI110" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AJ110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL110" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AM110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN110" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="s" s="2">
-        <v>657</v>
-      </c>
-      <c r="B111" s="2"/>
-      <c r="C111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="D111" s="2"/>
-      <c r="E111" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="F111" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J111" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="K111" t="s" s="2">
-        <v>658</v>
-      </c>
-      <c r="L111" t="s" s="2">
-        <v>658</v>
-      </c>
-      <c r="M111" t="s" s="2">
-        <v>659</v>
-      </c>
-      <c r="N111" s="2"/>
-      <c r="O111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P111" s="2"/>
-      <c r="Q111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W111" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="X111" s="2"/>
-      <c r="Y111" t="s" s="2">
-        <v>660</v>
-      </c>
-      <c r="Z111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE111" t="s" s="2">
-        <v>657</v>
-      </c>
-      <c r="AF111" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AG111" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI111" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK111" t="s" s="2">
-        <v>652</v>
-      </c>
-      <c r="AL111" t="s" s="2">
-        <v>661</v>
-      </c>
-      <c r="AM111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN111" t="s" s="2">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="s" s="2">
-        <v>663</v>
-      </c>
-      <c r="B112" s="2"/>
-      <c r="C112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="D112" s="2"/>
-      <c r="E112" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F112" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J112" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="K112" t="s" s="2">
-        <v>664</v>
-      </c>
-      <c r="L112" t="s" s="2">
-        <v>665</v>
-      </c>
-      <c r="M112" t="s" s="2">
-        <v>666</v>
-      </c>
-      <c r="N112" s="2"/>
-      <c r="O112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P112" s="2"/>
-      <c r="Q112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W112" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="X112" t="s" s="2">
-        <v>667</v>
-      </c>
-      <c r="Y112" t="s" s="2">
-        <v>668</v>
-      </c>
-      <c r="Z112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE112" t="s" s="2">
-        <v>663</v>
-      </c>
-      <c r="AF112" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG112" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI112" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK112" t="s" s="2">
-        <v>669</v>
-      </c>
-      <c r="AL112" t="s" s="2">
-        <v>670</v>
-      </c>
-      <c r="AM112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN112" t="s" s="2">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="s" s="2">
-        <v>672</v>
-      </c>
-      <c r="B113" s="2"/>
-      <c r="C113" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="D113" s="2"/>
-      <c r="E113" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F113" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G113" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H113" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I113" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J113" t="s" s="2">
-        <v>673</v>
-      </c>
-      <c r="K113" t="s" s="2">
-        <v>674</v>
-      </c>
-      <c r="L113" t="s" s="2">
-        <v>675</v>
-      </c>
-      <c r="M113" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="N113" s="2"/>
-      <c r="O113" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P113" s="2"/>
-      <c r="Q113" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R113" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S113" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T113" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U113" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V113" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W113" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X113" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y113" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z113" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA113" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB113" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC113" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD113" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE113" t="s" s="2">
-        <v>672</v>
-      </c>
-      <c r="AF113" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG113" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH113" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI113" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ113" t="s" s="2">
-        <v>676</v>
-      </c>
-      <c r="AK113" t="s" s="2">
-        <v>669</v>
-      </c>
-      <c r="AL113" t="s" s="2">
-        <v>677</v>
-      </c>
-      <c r="AM113" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN113" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="s" s="2">
-        <v>678</v>
-      </c>
-      <c r="B114" s="2"/>
-      <c r="C114" t="s" s="2">
-        <v>679</v>
-      </c>
-      <c r="D114" s="2"/>
-      <c r="E114" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F114" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G114" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H114" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I114" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J114" t="s" s="2">
-        <v>680</v>
-      </c>
-      <c r="K114" t="s" s="2">
-        <v>681</v>
-      </c>
-      <c r="L114" t="s" s="2">
-        <v>682</v>
-      </c>
-      <c r="M114" t="s" s="2">
-        <v>683</v>
-      </c>
-      <c r="N114" s="2"/>
-      <c r="O114" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P114" s="2"/>
-      <c r="Q114" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R114" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S114" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T114" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U114" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V114" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W114" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X114" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y114" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z114" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA114" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB114" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC114" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD114" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE114" t="s" s="2">
-        <v>678</v>
-      </c>
-      <c r="AF114" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG114" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH114" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI114" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ114" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK114" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL114" t="s" s="2">
-        <v>684</v>
-      </c>
-      <c r="AM114" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN114" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="s" s="2">
-        <v>685</v>
-      </c>
-      <c r="B115" s="2"/>
-      <c r="C115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="D115" s="2"/>
-      <c r="E115" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F115" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J115" t="s" s="2">
-        <v>686</v>
-      </c>
-      <c r="K115" t="s" s="2">
-        <v>687</v>
-      </c>
-      <c r="L115" t="s" s="2">
-        <v>688</v>
-      </c>
-      <c r="M115" t="s" s="2">
-        <v>689</v>
-      </c>
-      <c r="N115" s="2"/>
-      <c r="O115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P115" s="2"/>
-      <c r="Q115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE115" t="s" s="2">
-        <v>685</v>
-      </c>
-      <c r="AF115" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG115" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI115" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ115" t="s" s="2">
-        <v>690</v>
-      </c>
-      <c r="AK115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL115" t="s" s="2">
-        <v>691</v>
-      </c>
-      <c r="AM115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN115" t="s" s="2">
         <v>80</v>
       </c>
     </row>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationrequest.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationrequest.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-26</t>
+    <t>2022-10-24</t>
   </si>
   <si>
     <t>Publisher</t>
